--- a/EV76C661/Промеры до и после.xlsx
+++ b/EV76C661/Промеры до и после.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VPL\LabView_PRJ\EV76C661\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LabView_PRJ\EV76C661\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53925D24-CE62-4F4B-8CB9-3CB44B4C581A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>Образец №</t>
   </si>
@@ -67,16 +66,28 @@
   </si>
   <si>
     <t>Кабели без гермо, на столе</t>
+  </si>
+  <si>
+    <t>Кадры такие же</t>
+  </si>
+  <si>
+    <t>13 (до 40 при сером)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,15 +419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -425,6 +427,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,18 +725,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
@@ -736,31 +756,31 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="26">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23">
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="26">
         <v>2</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23">
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="26">
         <v>3</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="26">
         <v>4</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="23">
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="26">
         <v>5</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -817,7 +837,9 @@
       <c r="B3" s="14">
         <v>24</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="31">
+        <v>38</v>
+      </c>
       <c r="D3" s="16"/>
       <c r="E3" s="5">
         <v>24</v>
@@ -847,7 +869,9 @@
       <c r="B4" s="14">
         <v>18</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="15">
+        <v>18</v>
+      </c>
       <c r="D4" s="16"/>
       <c r="E4" s="5">
         <v>18</v>
@@ -877,7 +901,9 @@
       <c r="B5" s="14">
         <v>17</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="16"/>
       <c r="E5" s="5">
         <v>17</v>
@@ -907,7 +933,9 @@
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
@@ -937,7 +965,9 @@
       <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="18"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
@@ -961,23 +991,26 @@
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="25"/>
+      <c r="C8" s="29" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="25"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -990,5 +1023,6 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>